--- a/data/trans_bre/P24_5_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P24_5_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,89</t>
+          <t>9,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,23</t>
+          <t>10,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,21</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,79</t>
+          <t>14,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,47</t>
+          <t>17,2</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>124,39%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>140,91%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>124,73%</t>
+          <t>114,6%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>185,45%</t>
+          <t>236,56%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>71,15%</t>
+          <t>117,78%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>211,07%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>196,0%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,39; 13,76</t>
+          <t>0,16; 17,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,78; 16,42</t>
+          <t>3,8; 17,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,23; 15,03</t>
+          <t>3,69; 15,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,1; 17,1</t>
+          <t>9,24; 19,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,79; 18,44</t>
+          <t>7,68; 26,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,67; 316,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,55; 359,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,39; 264,23</t>
+          <t>-6,02; 435,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>79,33; 394,53</t>
+          <t>33,74; 869,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,81; 140,35</t>
+          <t>31,28; 268,26</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>93,05; 430,06</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>50,79; 550,53</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,75</t>
+          <t>13,98</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,12</t>
+          <t>13,12</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,26</t>
+          <t>13,54</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,21</t>
+          <t>16,27</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,14</t>
+          <t>19,15</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>112,26%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>177,23%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>129,52%</t>
+          <t>182,62%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>192,75%</t>
+          <t>182,32%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>167,37%</t>
+          <t>145,21%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>195,06%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>277,81%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,23; 14,47</t>
+          <t>4,16; 20,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,31; 16,66</t>
+          <t>7,83; 18,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,02; 15,94</t>
+          <t>8,81; 17,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,12; 20,82</t>
+          <t>12,2; 20,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,85; 25,47</t>
+          <t>13,93; 24,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,91; 184,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,03; 303,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>68,38; 206,48</t>
+          <t>-5,13; 485,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>113,72; 309,62</t>
+          <t>76,59; 378,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>97,1; 263,11</t>
+          <t>70,1; 248,16</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>119,38; 307,52</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>144,47; 501,61</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,51</t>
+          <t>14,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,84</t>
+          <t>8,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,39</t>
+          <t>14,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,32</t>
+          <t>13,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,2</t>
+          <t>9,52</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>145,49%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>136,06%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>151,58%</t>
+          <t>148,25%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>202,76%</t>
+          <t>99,3%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>107,93%</t>
+          <t>170,06%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>194,24%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>126,47%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,91; 17,59</t>
+          <t>7,02; 20,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,0; 13,95</t>
+          <t>1,87; 15,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,34; 18,31</t>
+          <t>9,65; 19,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,91; 17,36</t>
+          <t>8,95; 16,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 18,54</t>
+          <t>4,15; 14,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>68,49; 259,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>36,46; 270,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>83,3; 260,79</t>
+          <t>48,77; 310,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>101,51; 355,05</t>
+          <t>3,55; 257,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>21,32; 275,08</t>
+          <t>84,58; 288,39</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>101,42; 341,3</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>35,54; 295,76</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,72</t>
+          <t>8,92</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,01</t>
+          <t>11,59</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,02</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,3</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,3</t>
+          <t>11,89</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>121,29%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>156,26%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>133,69%</t>
+          <t>97,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>190,35%</t>
+          <t>178,58%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>119,13%</t>
+          <t>96,62%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>133,6%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,95; 13,26</t>
+          <t>5,59; 11,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,2; 13,9</t>
+          <t>7,87; 15,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,45; 14,66</t>
+          <t>4,15; 15,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,55; 17,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,41; 18,91</t>
+          <t>6,58; 17,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>74,39; 177,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,96; 231,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>92,47; 192,49</t>
+          <t>48,25; 156,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>134,26; 270,59</t>
+          <t>92,78; 325,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>77,88; 165,07</t>
+          <t>30,89; 198,82</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>53,35; 266,45</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10,7</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11,29</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12,16</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14,64</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14,43</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>121,03%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>161,72%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>132,95%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>195,35%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>182,06%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7,79; 13,43</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8,71; 14,23</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9,5; 14,71</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>12,19; 17,34</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11,55; 17,38</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>73,05; 178,42</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>101,42; 242,81</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>88,69; 186,48</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>140,32; 264,46</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>122,76; 263,87</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
